--- a/va_facility_data_2025-02-20/Hershel \"Woody\" Williams VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Hershel%20%22Woody%22%20Williams%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Hershel \"Woody\" Williams VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Hershel%20%22Woody%22%20Williams%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R6e1cfd2e1f424bb38dd2f85a8e996480"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R333a6b7d96604f80933aa2838d64303c"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R5db217334a654926ab6ed65b855093ac"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R1ef06d954a894cb6b5ad92fdb0c2a592"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R046a460054b9417999355c49e1f91b7d"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rb8c1e00240e6494396d4cb790ea8a247"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R7c22cb946eac46699eed841aca5bd123"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R3d800a29753b43ce9e601993681956bb"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rf4b2063ae2a749ac95ec803fc6241c3c"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R52f7be2fee2d428c98fe43e5f07d9904"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rc8497b172ad042a5b9fc3063a4d51fc5"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rdaad9dbb24824335ba8b0264b44a43e2"/>
   </x:sheets>
 </x:workbook>
 </file>
